--- a/Code/Results/Cases/Case_2_197/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_197/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9359035704623295</v>
+        <v>0.5041017266062511</v>
       </c>
       <c r="C2">
-        <v>0.09970291065447512</v>
+        <v>0.1581249250453922</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.09656057202337109</v>
+        <v>0.2165337921211758</v>
       </c>
       <c r="F2">
-        <v>1.113883980375903</v>
+        <v>2.231111514047953</v>
       </c>
       <c r="G2">
-        <v>0.0008283644556630942</v>
+        <v>0.002494084295733952</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4920814285923854</v>
+        <v>1.147359092487445</v>
       </c>
       <c r="J2">
-        <v>0.09155004232592745</v>
+        <v>0.08197583239966022</v>
       </c>
       <c r="K2">
-        <v>0.778269199034554</v>
+        <v>0.2651977151940059</v>
       </c>
       <c r="L2">
-        <v>0.2878077050227716</v>
+        <v>0.4315841589738909</v>
       </c>
       <c r="M2">
-        <v>0.2529211351527216</v>
+        <v>0.2178704624623471</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.92649884789931</v>
+        <v>4.295835490669134</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8138992862599537</v>
+        <v>0.4689878571626593</v>
       </c>
       <c r="C3">
-        <v>0.09810756139597387</v>
+        <v>0.157603835916138</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.09226724954928045</v>
+        <v>0.2164078504903095</v>
       </c>
       <c r="F3">
-        <v>1.079965850751783</v>
+        <v>2.23631421078634</v>
       </c>
       <c r="G3">
-        <v>0.000831865051081603</v>
+        <v>0.002496355630131978</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.502702614347811</v>
+        <v>1.157062018474946</v>
       </c>
       <c r="J3">
-        <v>0.08665649290966471</v>
+        <v>0.08019814982303686</v>
       </c>
       <c r="K3">
-        <v>0.6791233867084969</v>
+        <v>0.2347821990510397</v>
       </c>
       <c r="L3">
-        <v>0.2611572288253257</v>
+        <v>0.4263310002189371</v>
       </c>
       <c r="M3">
-        <v>0.2218493183039705</v>
+        <v>0.209770911978918</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.946884347070352</v>
+        <v>4.328891240760242</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7391249280793772</v>
+        <v>0.4475362412818811</v>
       </c>
       <c r="C4">
-        <v>0.09713965796782276</v>
+        <v>0.1572862086821196</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.08971860188998093</v>
+        <v>0.2163989054339162</v>
       </c>
       <c r="F4">
-        <v>1.060814962631177</v>
+        <v>2.240513565828707</v>
       </c>
       <c r="G4">
-        <v>0.0008340863263242114</v>
+        <v>0.002497824995069194</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.5100557134881214</v>
+        <v>1.163497698915101</v>
       </c>
       <c r="J4">
-        <v>0.08364513576132637</v>
+        <v>0.07909739515754666</v>
       </c>
       <c r="K4">
-        <v>0.6182531239388993</v>
+        <v>0.2160919838259474</v>
       </c>
       <c r="L4">
-        <v>0.2450023302031212</v>
+        <v>0.4232623875059716</v>
       </c>
       <c r="M4">
-        <v>0.2028636259960024</v>
+        <v>0.2048696086078543</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.962904840033531</v>
+        <v>4.351138808109411</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7086787791249378</v>
+        <v>0.4388224589499714</v>
       </c>
       <c r="C5">
-        <v>0.09674796033264244</v>
+        <v>0.1571573711001619</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.08870128066129013</v>
+        <v>0.2164125085467354</v>
       </c>
       <c r="F5">
-        <v>1.053415841700613</v>
+        <v>2.242477846069917</v>
       </c>
       <c r="G5">
-        <v>0.0008350098796103607</v>
+        <v>0.002498442625987141</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.5132552999796793</v>
+        <v>1.1662405683104</v>
       </c>
       <c r="J5">
-        <v>0.08241607754240121</v>
+        <v>0.07864652464418853</v>
       </c>
       <c r="K5">
-        <v>0.5934420112445196</v>
+        <v>0.2084722786108415</v>
       </c>
       <c r="L5">
-        <v>0.2384683649160593</v>
+        <v>0.4220515205571473</v>
       </c>
       <c r="M5">
-        <v>0.1951473153015719</v>
+        <v>0.2028905316052345</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.970285058149216</v>
+        <v>4.360695742804182</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7036244657072075</v>
+        <v>0.4373772480135187</v>
       </c>
       <c r="C6">
-        <v>0.09668307867849535</v>
+        <v>0.1571360142498399</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.08853361961782724</v>
+        <v>0.2164158106367822</v>
       </c>
       <c r="F6">
-        <v>1.052211226495245</v>
+        <v>2.242819303954199</v>
       </c>
       <c r="G6">
-        <v>0.000835164352375295</v>
+        <v>0.002498546323315325</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.5137986879401524</v>
+        <v>1.166703286176745</v>
       </c>
       <c r="J6">
-        <v>0.08221187200866709</v>
+        <v>0.07857151942842222</v>
       </c>
       <c r="K6">
-        <v>0.5893215749671867</v>
+        <v>0.2072068475479512</v>
       </c>
       <c r="L6">
-        <v>0.2373862920796057</v>
+        <v>0.421852855037713</v>
       </c>
       <c r="M6">
-        <v>0.1938671890047274</v>
+        <v>0.2025630144428376</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.97156114899866</v>
+        <v>4.362312318508742</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.738714231423188</v>
+        <v>0.4474186102255828</v>
       </c>
       <c r="C7">
-        <v>0.09713436459023228</v>
+        <v>0.1572844686937849</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.0897047967351412</v>
+        <v>0.2163990189824041</v>
       </c>
       <c r="F7">
-        <v>1.060713556421668</v>
+        <v>2.240539031945467</v>
       </c>
       <c r="G7">
-        <v>0.0008340987069810901</v>
+        <v>0.002497833248032367</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.5100980494431084</v>
+        <v>1.163534203121241</v>
       </c>
       <c r="J7">
-        <v>0.08362856825313614</v>
+        <v>0.07909132386001261</v>
       </c>
       <c r="K7">
-        <v>0.6179185463194585</v>
+        <v>0.2159892345133301</v>
       </c>
       <c r="L7">
-        <v>0.2449140153763665</v>
+        <v>0.4232458966851169</v>
       </c>
       <c r="M7">
-        <v>0.2027594816096006</v>
+        <v>0.2048428439808205</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.963000961325079</v>
+        <v>4.351265708462265</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.893802261063712</v>
+        <v>0.4919723393412596</v>
       </c>
       <c r="C8">
-        <v>0.09915029237379258</v>
+        <v>0.15794477931518</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.09506163444444837</v>
+        <v>0.2164762056128744</v>
       </c>
       <c r="F8">
-        <v>1.101831401668548</v>
+        <v>2.232697032330165</v>
       </c>
       <c r="G8">
-        <v>0.0008295567156549395</v>
+        <v>0.002494851968934989</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.495567320803449</v>
+        <v>1.150605485008324</v>
       </c>
       <c r="J8">
-        <v>0.08986399847483284</v>
+        <v>0.08136482009261314</v>
       </c>
       <c r="K8">
-        <v>0.7440779235120516</v>
+        <v>0.2547138249566956</v>
       </c>
       <c r="L8">
-        <v>0.2785733638863803</v>
+        <v>0.429740419718172</v>
       </c>
       <c r="M8">
-        <v>0.2421866565101567</v>
+        <v>0.2150629267973727</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.932782520634333</v>
+        <v>4.306828275286122</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.199478736299568</v>
+        <v>0.5801782079079487</v>
       </c>
       <c r="C9">
-        <v>0.1032058762884418</v>
+        <v>0.159257550996692</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1062951428985741</v>
+        <v>0.2171680172868911</v>
       </c>
       <c r="F9">
-        <v>1.196523767438109</v>
+        <v>2.225279608979648</v>
       </c>
       <c r="G9">
-        <v>0.0008212066829273225</v>
+        <v>0.002489596355754291</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.4739542064617339</v>
+        <v>1.129042303357043</v>
       </c>
       <c r="J9">
-        <v>0.1020496200313019</v>
+        <v>0.08574896509409058</v>
       </c>
       <c r="K9">
-        <v>0.9918886073700151</v>
+        <v>0.330516835887039</v>
       </c>
       <c r="L9">
-        <v>0.3463881459332327</v>
+        <v>0.4437138961751401</v>
       </c>
       <c r="M9">
-        <v>0.3203726040996528</v>
+        <v>0.2356680298084513</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.902713881651465</v>
+        <v>4.235159321946867</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.425710529718856</v>
+        <v>0.6454668458731589</v>
       </c>
       <c r="C10">
-        <v>0.1062633044742256</v>
+        <v>0.1602323537429129</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1150442453999752</v>
+        <v>0.2180031313145889</v>
       </c>
       <c r="F10">
-        <v>1.275799736646988</v>
+        <v>2.224668742281978</v>
       </c>
       <c r="G10">
-        <v>0.0008153912822952161</v>
+        <v>0.002486091642042253</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4626836746797522</v>
+        <v>1.115506131465903</v>
       </c>
       <c r="J10">
-        <v>0.1109938404161497</v>
+        <v>0.08892401598714628</v>
       </c>
       <c r="K10">
-        <v>1.174767667984469</v>
+        <v>0.3861090661393405</v>
       </c>
       <c r="L10">
-        <v>0.3975445378377742</v>
+        <v>0.4547271123236243</v>
       </c>
       <c r="M10">
-        <v>0.378550277444873</v>
+        <v>0.251143016762164</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.90045476115435</v>
+        <v>4.191925339261616</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.529157036656187</v>
+        <v>0.6752683115126672</v>
       </c>
       <c r="C11">
-        <v>0.1076749094005649</v>
+        <v>0.1606779358271453</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1191442356774317</v>
+        <v>0.2184534750322094</v>
       </c>
       <c r="F11">
-        <v>1.314239175583253</v>
+        <v>2.225438649309964</v>
       </c>
       <c r="G11">
-        <v>0.0008128103797702124</v>
+        <v>0.002484573941860275</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4586546411230366</v>
+        <v>1.109848096546269</v>
       </c>
       <c r="J11">
-        <v>0.1150649822578416</v>
+        <v>0.09035829889867131</v>
       </c>
       <c r="K11">
-        <v>1.258275259479831</v>
+        <v>0.4113742885546117</v>
       </c>
       <c r="L11">
-        <v>0.42116080376978</v>
+        <v>0.4598979595878916</v>
       </c>
       <c r="M11">
-        <v>0.4052250130303108</v>
+        <v>0.2582546310596214</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.904215113146506</v>
+        <v>4.174300525314862</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.568420795160733</v>
+        <v>0.6865673496004661</v>
       </c>
       <c r="C12">
-        <v>0.1082127783290332</v>
+        <v>0.1608469617876196</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1207151022146533</v>
+        <v>0.2186340888636913</v>
       </c>
       <c r="F12">
-        <v>1.329160539949299</v>
+        <v>2.225880581373431</v>
       </c>
       <c r="G12">
-        <v>0.0008118419386682388</v>
+        <v>0.002484010188618116</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4572955639506624</v>
+        <v>1.107777331429403</v>
       </c>
       <c r="J12">
-        <v>0.1166072963683291</v>
+        <v>0.09089995831770636</v>
       </c>
       <c r="K12">
-        <v>1.289954419542369</v>
+        <v>0.4209377212879417</v>
       </c>
       <c r="L12">
-        <v>0.4301580118318071</v>
+        <v>0.4618789999306188</v>
       </c>
       <c r="M12">
-        <v>0.4153603837749387</v>
+        <v>0.2609578076485803</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.906370640631167</v>
+        <v>4.167920005564156</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.559960365823827</v>
+        <v>0.6841332938806772</v>
       </c>
       <c r="C13">
-        <v>0.1080967850296801</v>
+        <v>0.160810546179718</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1203759574031302</v>
+        <v>0.2185947430239636</v>
       </c>
       <c r="F13">
-        <v>1.325930325818689</v>
+        <v>2.22577871955491</v>
       </c>
       <c r="G13">
-        <v>0.0008120501208192076</v>
+        <v>0.002484131116136734</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4575807093079227</v>
+        <v>1.108220114575268</v>
       </c>
       <c r="J13">
-        <v>0.1162750967203934</v>
+        <v>0.0907833681580712</v>
       </c>
       <c r="K13">
-        <v>1.28312903649811</v>
+        <v>0.4188782491517316</v>
       </c>
       <c r="L13">
-        <v>0.4282178126760243</v>
+        <v>0.4614513295120446</v>
       </c>
       <c r="M13">
-        <v>0.4131759595424072</v>
+        <v>0.2603751811771886</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.905873156421848</v>
+        <v>4.169281107651074</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.532385384544085</v>
+        <v>0.6761976162195822</v>
       </c>
       <c r="C14">
-        <v>0.1077190915148947</v>
+        <v>0.1606918358868654</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1192730991086748</v>
+        <v>0.2184681325494751</v>
       </c>
       <c r="F14">
-        <v>1.315459306645437</v>
+        <v>2.225471995031626</v>
       </c>
       <c r="G14">
-        <v>0.0008127305297625287</v>
+        <v>0.002484527341977162</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4585394374039637</v>
+        <v>1.109676294489354</v>
       </c>
       <c r="J14">
-        <v>0.1151918542156452</v>
+        <v>0.09040289119915457</v>
       </c>
       <c r="K14">
-        <v>1.260880319748566</v>
+        <v>0.4121611601920563</v>
       </c>
       <c r="L14">
-        <v>0.4218998947996795</v>
+        <v>0.4600604820027172</v>
       </c>
       <c r="M14">
-        <v>0.4060581455466448</v>
+        <v>0.258476820414792</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.904377531229642</v>
+        <v>4.173769712210344</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.515507178405187</v>
+        <v>0.6713385699641776</v>
       </c>
       <c r="C15">
-        <v>0.1074881869045328</v>
+        <v>0.1606191602416516</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1185999801862145</v>
+        <v>0.2183918909567417</v>
       </c>
       <c r="F15">
-        <v>1.309093784617659</v>
+        <v>2.225303693452233</v>
       </c>
       <c r="G15">
-        <v>0.0008131484455647457</v>
+        <v>0.002484771468467152</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.459148655381032</v>
+        <v>1.110577597398787</v>
       </c>
       <c r="J15">
-        <v>0.1145284328280738</v>
+        <v>0.09016964557688567</v>
       </c>
       <c r="K15">
-        <v>1.247260066608618</v>
+        <v>0.4080462185174838</v>
       </c>
       <c r="L15">
-        <v>0.4180371941292833</v>
+        <v>0.4592115314730592</v>
       </c>
       <c r="M15">
-        <v>0.4017028632483957</v>
+        <v>0.2573153375911019</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.903558015444929</v>
+        <v>4.176557346450693</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.418961966975189</v>
+        <v>0.6435212290885772</v>
       </c>
       <c r="C16">
-        <v>0.1061714988758666</v>
+        <v>0.1602032757632088</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1147788028509744</v>
+        <v>0.2179751134354788</v>
       </c>
       <c r="F16">
-        <v>1.273337419714338</v>
+        <v>2.224639486863808</v>
       </c>
       <c r="G16">
-        <v>0.0008155612162750658</v>
+        <v>0.002486192364824943</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.4629698102451094</v>
+        <v>1.115885948139741</v>
       </c>
       <c r="J16">
-        <v>0.1107278563519998</v>
+        <v>0.08883007756180916</v>
       </c>
       <c r="K16">
-        <v>1.169317540590669</v>
+        <v>0.3844573983765542</v>
       </c>
       <c r="L16">
-        <v>0.3960084903284127</v>
+        <v>0.4543924070834464</v>
       </c>
       <c r="M16">
-        <v>0.37681158002421</v>
+        <v>0.250679688267617</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.900308976431006</v>
+        <v>4.193118254888674</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.359880813981164</v>
+        <v>0.6264816459799363</v>
       </c>
       <c r="C17">
-        <v>0.1053693032818828</v>
+        <v>0.159948682085016</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1124660817604912</v>
+        <v>0.2177374401237167</v>
       </c>
       <c r="F17">
-        <v>1.252026928578076</v>
+        <v>2.224500179132207</v>
       </c>
       <c r="G17">
-        <v>0.0008170576346246183</v>
+        <v>0.002487083625066865</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4656012299465644</v>
+        <v>1.119270391882146</v>
       </c>
       <c r="J17">
-        <v>0.1083971547000218</v>
+        <v>0.08800570047277745</v>
       </c>
       <c r="K17">
-        <v>1.121590821874236</v>
+        <v>0.3699799185682195</v>
       </c>
       <c r="L17">
-        <v>0.3825861525896102</v>
+        <v>0.4514771063368386</v>
       </c>
       <c r="M17">
-        <v>0.361598060391394</v>
+        <v>0.2466272319721554</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.899571873719424</v>
+        <v>4.203800908320318</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.325948110796929</v>
+        <v>0.6166905086163013</v>
       </c>
       <c r="C18">
-        <v>0.1049098340640811</v>
+        <v>0.1598024487357392</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1111470931443641</v>
+        <v>0.217607370531276</v>
       </c>
       <c r="F18">
-        <v>1.239991885638076</v>
+        <v>2.224518693456957</v>
       </c>
       <c r="G18">
-        <v>0.0008179244356107951</v>
+        <v>0.002487603468696403</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4672175450839084</v>
+        <v>1.12126406487398</v>
       </c>
       <c r="J18">
-        <v>0.1070567996216667</v>
+        <v>0.08753059484675418</v>
       </c>
       <c r="K18">
-        <v>1.094168596268361</v>
+        <v>0.3616506302518303</v>
       </c>
       <c r="L18">
-        <v>0.3748981539752236</v>
+        <v>0.4498154560995147</v>
       </c>
       <c r="M18">
-        <v>0.3528670953682607</v>
+        <v>0.2443031510877205</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.899595843933639</v>
+        <v>4.210137547671962</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.314467115560007</v>
+        <v>0.6133770645689651</v>
       </c>
       <c r="C19">
-        <v>0.1047545877671254</v>
+        <v>0.1597529717895512</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.110702404014436</v>
+        <v>0.2175644721392445</v>
       </c>
       <c r="F19">
-        <v>1.235954497165181</v>
+        <v>2.224541912395892</v>
       </c>
       <c r="G19">
-        <v>0.00081821897882959</v>
+        <v>0.002487780719253626</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4677821990179076</v>
+        <v>1.121947166965327</v>
       </c>
       <c r="J19">
-        <v>0.1066030038299388</v>
+        <v>0.08736957058419392</v>
       </c>
       <c r="K19">
-        <v>1.084888536440303</v>
+        <v>0.3588301098801026</v>
       </c>
       <c r="L19">
-        <v>0.3723005194574824</v>
+        <v>0.4492554580678245</v>
       </c>
       <c r="M19">
-        <v>0.3499141602453051</v>
+        <v>0.2435174281969452</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.899679626731853</v>
+        <v>4.212316048722471</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.36616491026362</v>
+        <v>0.6282945522738999</v>
       </c>
       <c r="C20">
-        <v>0.1054544960133441</v>
+        <v>0.1599757631922429</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1127111055694492</v>
+        <v>0.2177620546534627</v>
       </c>
       <c r="F20">
-        <v>1.254272305937761</v>
+        <v>2.224504801833575</v>
       </c>
       <c r="G20">
-        <v>0.0008168977097718187</v>
+        <v>0.002486988002816427</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4653104107045642</v>
+        <v>1.118905244861779</v>
       </c>
       <c r="J20">
-        <v>0.1086452386171075</v>
+        <v>0.0880935548831232</v>
       </c>
       <c r="K20">
-        <v>1.126668339759078</v>
+        <v>0.3715213049926547</v>
       </c>
       <c r="L20">
-        <v>0.3840116207377662</v>
+        <v>0.4517858780490513</v>
       </c>
       <c r="M20">
-        <v>0.3632155237182104</v>
+        <v>0.2470579220100149</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.899603677457065</v>
+        <v>4.202643824197139</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.540482241879175</v>
+        <v>0.6785281462777277</v>
       </c>
       <c r="C21">
-        <v>0.1078299361659205</v>
+        <v>0.1607266961177345</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1195965303865165</v>
+        <v>0.2185050480002459</v>
       </c>
       <c r="F21">
-        <v>1.318524793374223</v>
+        <v>2.225558008341238</v>
       </c>
       <c r="G21">
-        <v>0.0008125304391006293</v>
+        <v>0.00248441066353773</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.458253240924865</v>
+        <v>1.109246630546295</v>
       </c>
       <c r="J21">
-        <v>0.115510008207572</v>
+        <v>0.09051468666661577</v>
       </c>
       <c r="K21">
-        <v>1.267413675162544</v>
+        <v>0.414134243561989</v>
       </c>
       <c r="L21">
-        <v>0.4237541099079465</v>
+        <v>0.4604683861488184</v>
       </c>
       <c r="M21">
-        <v>0.4081478569494692</v>
+        <v>0.2590341406579384</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.904796620798237</v>
+        <v>4.172443332422148</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.654945361725481</v>
+        <v>0.7114392231939632</v>
       </c>
       <c r="C22">
-        <v>0.1094019833011188</v>
+        <v>0.1612191797216695</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1242036841154075</v>
+        <v>0.2190493580333772</v>
       </c>
       <c r="F22">
-        <v>1.36265806629919</v>
+        <v>2.227122764882054</v>
       </c>
       <c r="G22">
-        <v>0.0008097277980122447</v>
+        <v>0.002482790125455843</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4546166963374034</v>
+        <v>1.103352713715182</v>
       </c>
       <c r="J22">
-        <v>0.1200005479495303</v>
+        <v>0.09208844227990909</v>
       </c>
       <c r="K22">
-        <v>1.359734949796518</v>
+        <v>0.4419609511279532</v>
       </c>
       <c r="L22">
-        <v>0.4500466524904851</v>
+        <v>0.4662766087722474</v>
       </c>
       <c r="M22">
-        <v>0.4377153526870288</v>
+        <v>0.2669204411730064</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.912476708446889</v>
+        <v>4.154416930572495</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.593800163645795</v>
+        <v>0.6938668261079783</v>
       </c>
       <c r="C23">
-        <v>0.1085610421799714</v>
+        <v>0.1609561804653694</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1217345978960154</v>
+        <v>0.2187534936029252</v>
       </c>
       <c r="F23">
-        <v>1.338899296367657</v>
+        <v>2.226207526772228</v>
       </c>
       <c r="G23">
-        <v>0.0008112190323046724</v>
+        <v>0.002483649206333969</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4564652707450705</v>
+        <v>1.106460123345059</v>
       </c>
       <c r="J23">
-        <v>0.1176033839626882</v>
+        <v>0.09124929399165183</v>
       </c>
       <c r="K23">
-        <v>1.310426627387841</v>
+        <v>0.4271116156824348</v>
       </c>
       <c r="L23">
-        <v>0.4359830708713588</v>
+        <v>0.4631644773447761</v>
       </c>
       <c r="M23">
-        <v>0.4219147418360194</v>
+        <v>0.2627060233568344</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.907970528508002</v>
+        <v>4.163881403493519</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.363323765998302</v>
+        <v>0.6274749212569191</v>
       </c>
       <c r="C24">
-        <v>0.1054159750359958</v>
+        <v>0.1599635194008542</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1126002972868498</v>
+        <v>0.2177509059501119</v>
       </c>
       <c r="F24">
-        <v>1.253256497797395</v>
+        <v>2.224502404744854</v>
       </c>
       <c r="G24">
-        <v>0.0008169699914752938</v>
+        <v>0.002487031210400401</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4654415684308155</v>
+        <v>1.119070178585865</v>
       </c>
       <c r="J24">
-        <v>0.1085330811594716</v>
+        <v>0.08805383951639811</v>
       </c>
       <c r="K24">
-        <v>1.124372743375517</v>
+        <v>0.3708244628175521</v>
       </c>
       <c r="L24">
-        <v>0.3833670775964322</v>
+        <v>0.4516462375062531</v>
       </c>
       <c r="M24">
-        <v>0.3624842206076266</v>
+        <v>0.2468631891812905</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.899587907597834</v>
+        <v>4.203166334382615</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.116549099964374</v>
+        <v>0.5562293587036606</v>
       </c>
       <c r="C25">
-        <v>0.1020962687296461</v>
+        <v>0.1589005578844791</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1031730087267704</v>
+        <v>0.2169232774421026</v>
       </c>
       <c r="F25">
-        <v>1.169288601545972</v>
+        <v>2.226435450506614</v>
       </c>
       <c r="G25">
-        <v>0.0008234079917623477</v>
+        <v>0.002490955267055874</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.479023202405191</v>
+        <v>1.134470404294333</v>
       </c>
       <c r="J25">
-        <v>0.09875588149142089</v>
+        <v>0.08457095722375385</v>
       </c>
       <c r="K25">
-        <v>0.9247494352616172</v>
+        <v>0.3100264616405184</v>
       </c>
       <c r="L25">
-        <v>0.327825853030248</v>
+        <v>0.4398019839308063</v>
       </c>
       <c r="M25">
-        <v>0.2991078219742604</v>
+        <v>0.2300342105665578</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.907520383371619</v>
+        <v>4.252892392011745</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_197/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_197/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5041017266062511</v>
+        <v>0.9359035704622158</v>
       </c>
       <c r="C2">
-        <v>0.1581249250453922</v>
+        <v>0.09970291065432235</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2165337921211758</v>
+        <v>0.09656057202337465</v>
       </c>
       <c r="F2">
-        <v>2.231111514047953</v>
+        <v>1.113883980375903</v>
       </c>
       <c r="G2">
-        <v>0.002494084295733952</v>
+        <v>0.0008283644555837316</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.147359092487445</v>
+        <v>0.4920814285923747</v>
       </c>
       <c r="J2">
-        <v>0.08197583239966022</v>
+        <v>0.09155004232600206</v>
       </c>
       <c r="K2">
-        <v>0.2651977151940059</v>
+        <v>0.7782691990344972</v>
       </c>
       <c r="L2">
-        <v>0.4315841589738909</v>
+        <v>0.2878077050228711</v>
       </c>
       <c r="M2">
-        <v>0.2178704624623471</v>
+        <v>0.2529211351527145</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>4.295835490669134</v>
+        <v>1.926498847899396</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4689878571626593</v>
+        <v>0.8138992862600674</v>
       </c>
       <c r="C3">
-        <v>0.157603835916138</v>
+        <v>0.09810756139620835</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2164078504903095</v>
+        <v>0.09226724954925203</v>
       </c>
       <c r="F3">
-        <v>2.23631421078634</v>
+        <v>1.07996585075179</v>
       </c>
       <c r="G3">
-        <v>0.002496355630131978</v>
+        <v>0.0008318650510811608</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.157062018474946</v>
+        <v>0.5027026143478288</v>
       </c>
       <c r="J3">
-        <v>0.08019814982303686</v>
+        <v>0.08665649290954391</v>
       </c>
       <c r="K3">
-        <v>0.2347821990510397</v>
+        <v>0.6791233867085538</v>
       </c>
       <c r="L3">
-        <v>0.4263310002189371</v>
+        <v>0.261157228825212</v>
       </c>
       <c r="M3">
-        <v>0.209770911978918</v>
+        <v>0.2218493183039669</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>4.328891240760242</v>
+        <v>1.946884347070423</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4475362412818811</v>
+        <v>0.7391249280793772</v>
       </c>
       <c r="C4">
-        <v>0.1572862086821196</v>
+        <v>0.09713965796789026</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2163989054339162</v>
+        <v>0.08971860188998804</v>
       </c>
       <c r="F4">
-        <v>2.240513565828707</v>
+        <v>1.060814962631177</v>
       </c>
       <c r="G4">
-        <v>0.002497824995069194</v>
+        <v>0.0008340863262631494</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.163497698915101</v>
+        <v>0.5100557134881285</v>
       </c>
       <c r="J4">
-        <v>0.07909739515754666</v>
+        <v>0.08364513576131216</v>
       </c>
       <c r="K4">
-        <v>0.2160919838259474</v>
+        <v>0.6182531239388851</v>
       </c>
       <c r="L4">
-        <v>0.4232623875059716</v>
+        <v>0.2450023302031781</v>
       </c>
       <c r="M4">
-        <v>0.2048696086078543</v>
+        <v>0.2028636259960024</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>4.351138808109411</v>
+        <v>1.962904840033559</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4388224589499714</v>
+        <v>0.7086787791249094</v>
       </c>
       <c r="C5">
-        <v>0.1571573711001619</v>
+        <v>0.09674796033287691</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2164125085467354</v>
+        <v>0.08870128066128657</v>
       </c>
       <c r="F5">
-        <v>2.242477846069917</v>
+        <v>1.053415841700641</v>
       </c>
       <c r="G5">
-        <v>0.002498442625987141</v>
+        <v>0.0008350098796098052</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.1662405683104</v>
+        <v>0.5132552999796864</v>
       </c>
       <c r="J5">
-        <v>0.07864652464418853</v>
+        <v>0.08241607754245095</v>
       </c>
       <c r="K5">
-        <v>0.2084722786108415</v>
+        <v>0.593442011244548</v>
       </c>
       <c r="L5">
-        <v>0.4220515205571473</v>
+        <v>0.2384683649161019</v>
       </c>
       <c r="M5">
-        <v>0.2028905316052345</v>
+        <v>0.1951473153015932</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>4.360695742804182</v>
+        <v>1.970285058149287</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4373772480135187</v>
+        <v>0.7036244657074349</v>
       </c>
       <c r="C6">
-        <v>0.1571360142498399</v>
+        <v>0.09668307867848469</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2164158106367822</v>
+        <v>0.08853361961779171</v>
       </c>
       <c r="F6">
-        <v>2.242819303954199</v>
+        <v>1.052211226495245</v>
       </c>
       <c r="G6">
-        <v>0.002498546323315325</v>
+        <v>0.0008351643524335859</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.166703286176745</v>
+        <v>0.5137986879401701</v>
       </c>
       <c r="J6">
-        <v>0.07857151942842222</v>
+        <v>0.0822118720086813</v>
       </c>
       <c r="K6">
-        <v>0.2072068475479512</v>
+        <v>0.5893215749670873</v>
       </c>
       <c r="L6">
-        <v>0.421852855037713</v>
+        <v>0.2373862920795347</v>
       </c>
       <c r="M6">
-        <v>0.2025630144428376</v>
+        <v>0.1938671890047239</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>4.362312318508742</v>
+        <v>1.971561148998617</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4474186102255828</v>
+        <v>0.7387142314233017</v>
       </c>
       <c r="C7">
-        <v>0.1572844686937849</v>
+        <v>0.09713436458998359</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2163990189824041</v>
+        <v>0.08970479673514475</v>
       </c>
       <c r="F7">
-        <v>2.240539031945467</v>
+        <v>1.060713556421661</v>
       </c>
       <c r="G7">
-        <v>0.002497833248032367</v>
+        <v>0.0008340987068615183</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.163534203121241</v>
+        <v>0.5100980494431013</v>
       </c>
       <c r="J7">
-        <v>0.07909132386001261</v>
+        <v>0.08362856825315745</v>
       </c>
       <c r="K7">
-        <v>0.2159892345133301</v>
+        <v>0.6179185463194017</v>
       </c>
       <c r="L7">
-        <v>0.4232458966851169</v>
+        <v>0.2449140153763665</v>
       </c>
       <c r="M7">
-        <v>0.2048428439808205</v>
+        <v>0.2027594816095935</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>4.351265708462265</v>
+        <v>1.963000961325008</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4919723393412596</v>
+        <v>0.8938022610635414</v>
       </c>
       <c r="C8">
-        <v>0.15794477931518</v>
+        <v>0.0991502923736185</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2164762056128744</v>
+        <v>0.09506163444443416</v>
       </c>
       <c r="F8">
-        <v>2.232697032330165</v>
+        <v>1.101831401668584</v>
       </c>
       <c r="G8">
-        <v>0.002494851968934989</v>
+        <v>0.0008295567155743895</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.150605485008324</v>
+        <v>0.495567320803449</v>
       </c>
       <c r="J8">
-        <v>0.08136482009261314</v>
+        <v>0.0898639984748435</v>
       </c>
       <c r="K8">
-        <v>0.2547138249566956</v>
+        <v>0.7440779235121795</v>
       </c>
       <c r="L8">
-        <v>0.429740419718172</v>
+        <v>0.2785733638863661</v>
       </c>
       <c r="M8">
-        <v>0.2150629267973727</v>
+        <v>0.2421866565101602</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>4.306828275286122</v>
+        <v>1.932782520634404</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5801782079079487</v>
+        <v>1.199478736299397</v>
       </c>
       <c r="C9">
-        <v>0.159257550996692</v>
+        <v>0.1032058762883494</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2171680172868911</v>
+        <v>0.1062951428985706</v>
       </c>
       <c r="F9">
-        <v>2.225279608979648</v>
+        <v>1.196523767438109</v>
       </c>
       <c r="G9">
-        <v>0.002489596355754291</v>
+        <v>0.0008212066829844227</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.129042303357043</v>
+        <v>0.473954206461741</v>
       </c>
       <c r="J9">
-        <v>0.08574896509409058</v>
+        <v>0.1020496200312664</v>
       </c>
       <c r="K9">
-        <v>0.330516835887039</v>
+        <v>0.9918886073701003</v>
       </c>
       <c r="L9">
-        <v>0.4437138961751401</v>
+        <v>0.3463881459333322</v>
       </c>
       <c r="M9">
-        <v>0.2356680298084513</v>
+        <v>0.3203726040996457</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>4.235159321946867</v>
+        <v>1.902713881651465</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6454668458731589</v>
+        <v>1.425710529718657</v>
       </c>
       <c r="C10">
-        <v>0.1602323537429129</v>
+        <v>0.1062633044739911</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2180031313145889</v>
+        <v>0.1150442453999965</v>
       </c>
       <c r="F10">
-        <v>2.224668742281978</v>
+        <v>1.275799736646974</v>
       </c>
       <c r="G10">
-        <v>0.002486091642042253</v>
+        <v>0.0008153912822935908</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.115506131465903</v>
+        <v>0.4626836746797522</v>
       </c>
       <c r="J10">
-        <v>0.08892401598714628</v>
+        <v>0.1109938404161284</v>
       </c>
       <c r="K10">
-        <v>0.3861090661393405</v>
+        <v>1.174767667984526</v>
       </c>
       <c r="L10">
-        <v>0.4547271123236243</v>
+        <v>0.3975445378378026</v>
       </c>
       <c r="M10">
-        <v>0.251143016762164</v>
+        <v>0.378550277444873</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>4.191925339261616</v>
+        <v>1.900454761154435</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6752683115126672</v>
+        <v>1.529157036656187</v>
       </c>
       <c r="C11">
-        <v>0.1606779358271453</v>
+        <v>0.1076749094005649</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2184534750322094</v>
+        <v>0.1191442356774317</v>
       </c>
       <c r="F11">
-        <v>2.225438649309964</v>
+        <v>1.314239175583282</v>
       </c>
       <c r="G11">
-        <v>0.002484573941860275</v>
+        <v>0.0008128103798274285</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.109848096546269</v>
+        <v>0.4586546411230259</v>
       </c>
       <c r="J11">
-        <v>0.09035829889867131</v>
+        <v>0.1150649822578345</v>
       </c>
       <c r="K11">
-        <v>0.4113742885546117</v>
+        <v>1.258275259479802</v>
       </c>
       <c r="L11">
-        <v>0.4598979595878916</v>
+        <v>0.4211608037698227</v>
       </c>
       <c r="M11">
-        <v>0.2582546310596214</v>
+        <v>0.4052250130303037</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>4.174300525314862</v>
+        <v>1.904215113146535</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6865673496004661</v>
+        <v>1.568420795160819</v>
       </c>
       <c r="C12">
-        <v>0.1608469617876196</v>
+        <v>0.1082127783291185</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2186340888636913</v>
+        <v>0.1207151022146533</v>
       </c>
       <c r="F12">
-        <v>2.225880581373431</v>
+        <v>1.329160539949328</v>
       </c>
       <c r="G12">
-        <v>0.002484010188618116</v>
+        <v>0.0008118419386090552</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.107777331429403</v>
+        <v>0.4572955639506482</v>
       </c>
       <c r="J12">
-        <v>0.09089995831770636</v>
+        <v>0.116607296368322</v>
       </c>
       <c r="K12">
-        <v>0.4209377212879417</v>
+        <v>1.289954419542539</v>
       </c>
       <c r="L12">
-        <v>0.4618789999306188</v>
+        <v>0.4301580118318782</v>
       </c>
       <c r="M12">
-        <v>0.2609578076485803</v>
+        <v>0.4153603837749316</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>4.167920005564156</v>
+        <v>1.90637064063128</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6841332938806772</v>
+        <v>1.559960365823883</v>
       </c>
       <c r="C13">
-        <v>0.160810546179718</v>
+        <v>0.1080967850292112</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2185947430239636</v>
+        <v>0.120375957403116</v>
       </c>
       <c r="F13">
-        <v>2.22577871955491</v>
+        <v>1.325930325818717</v>
       </c>
       <c r="G13">
-        <v>0.002484131116136734</v>
+        <v>0.0008120501208999749</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.108220114575268</v>
+        <v>0.4575807093079156</v>
       </c>
       <c r="J13">
-        <v>0.0907833681580712</v>
+        <v>0.1162750967203152</v>
       </c>
       <c r="K13">
-        <v>0.4188782491517316</v>
+        <v>1.283129036498025</v>
       </c>
       <c r="L13">
-        <v>0.4614513295120446</v>
+        <v>0.4282178126759675</v>
       </c>
       <c r="M13">
-        <v>0.2603751811771886</v>
+        <v>0.4131759595423929</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>4.169281107651074</v>
+        <v>1.905873156421791</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6761976162195822</v>
+        <v>1.532385384543915</v>
       </c>
       <c r="C14">
-        <v>0.1606918358868654</v>
+        <v>0.1077190915151078</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2184681325494751</v>
+        <v>0.1192730991086819</v>
       </c>
       <c r="F14">
-        <v>2.225471995031626</v>
+        <v>1.315459306645423</v>
       </c>
       <c r="G14">
-        <v>0.002484527341977162</v>
+        <v>0.0008127305296787101</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.109676294489354</v>
+        <v>0.4585394374039531</v>
       </c>
       <c r="J14">
-        <v>0.09040289119915457</v>
+        <v>0.1151918542157446</v>
       </c>
       <c r="K14">
-        <v>0.4121611601920563</v>
+        <v>1.26088031974848</v>
       </c>
       <c r="L14">
-        <v>0.4600604820027172</v>
+        <v>0.4218998947996226</v>
       </c>
       <c r="M14">
-        <v>0.258476820414792</v>
+        <v>0.4060581455466448</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>4.173769712210344</v>
+        <v>1.904377531229613</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6713385699641776</v>
+        <v>1.515507178405386</v>
       </c>
       <c r="C15">
-        <v>0.1606191602416516</v>
+        <v>0.1074881869046038</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2183918909567417</v>
+        <v>0.1185999801862145</v>
       </c>
       <c r="F15">
-        <v>2.225303693452233</v>
+        <v>1.309093784617659</v>
       </c>
       <c r="G15">
-        <v>0.002484771468467152</v>
+        <v>0.0008131484456238569</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.110577597398787</v>
+        <v>0.459148655381032</v>
       </c>
       <c r="J15">
-        <v>0.09016964557688567</v>
+        <v>0.1145284328281235</v>
       </c>
       <c r="K15">
-        <v>0.4080462185174838</v>
+        <v>1.247260066608533</v>
       </c>
       <c r="L15">
-        <v>0.4592115314730592</v>
+        <v>0.4180371941293259</v>
       </c>
       <c r="M15">
-        <v>0.2573153375911019</v>
+        <v>0.4017028632483957</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>4.176557346450693</v>
+        <v>1.903558015444929</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6435212290885772</v>
+        <v>1.418961966975303</v>
       </c>
       <c r="C16">
-        <v>0.1602032757632088</v>
+        <v>0.1061714988758524</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2179751134354788</v>
+        <v>0.1147788028509602</v>
       </c>
       <c r="F16">
-        <v>2.224639486863808</v>
+        <v>1.273337419714338</v>
       </c>
       <c r="G16">
-        <v>0.002486192364824943</v>
+        <v>0.0008155612163326081</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.115885948139741</v>
+        <v>0.4629698102451165</v>
       </c>
       <c r="J16">
-        <v>0.08883007756180916</v>
+        <v>0.1107278563519927</v>
       </c>
       <c r="K16">
-        <v>0.3844573983765542</v>
+        <v>1.16931754059064</v>
       </c>
       <c r="L16">
-        <v>0.4543924070834464</v>
+        <v>0.3960084903284553</v>
       </c>
       <c r="M16">
-        <v>0.250679688267617</v>
+        <v>0.37681158002421</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>4.193118254888674</v>
+        <v>1.900308976431006</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6264816459799363</v>
+        <v>1.359880813980993</v>
       </c>
       <c r="C17">
-        <v>0.159948682085016</v>
+        <v>0.1053693032814067</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2177374401237167</v>
+        <v>0.1124660817604983</v>
       </c>
       <c r="F17">
-        <v>2.224500179132207</v>
+        <v>1.25202692857809</v>
       </c>
       <c r="G17">
-        <v>0.002487083625066865</v>
+        <v>0.0008170576345873048</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.119270391882146</v>
+        <v>0.4656012299465253</v>
       </c>
       <c r="J17">
-        <v>0.08800570047277745</v>
+        <v>0.108397154700107</v>
       </c>
       <c r="K17">
-        <v>0.3699799185682195</v>
+        <v>1.121590821874236</v>
       </c>
       <c r="L17">
-        <v>0.4514771063368386</v>
+        <v>0.382586152589667</v>
       </c>
       <c r="M17">
-        <v>0.2466272319721554</v>
+        <v>0.3615980603913869</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>4.203800908320318</v>
+        <v>1.899571873719367</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6166905086163013</v>
+        <v>1.325948110796929</v>
       </c>
       <c r="C18">
-        <v>0.1598024487357392</v>
+        <v>0.1049098340641663</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.217607370531276</v>
+        <v>0.1111470931443606</v>
       </c>
       <c r="F18">
-        <v>2.224518693456957</v>
+        <v>1.239991885638091</v>
       </c>
       <c r="G18">
-        <v>0.002487603468696403</v>
+        <v>0.0008179244356108361</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.12126406487398</v>
+        <v>0.4672175450839013</v>
       </c>
       <c r="J18">
-        <v>0.08753059484675418</v>
+        <v>0.1070567996216951</v>
       </c>
       <c r="K18">
-        <v>0.3616506302518303</v>
+        <v>1.094168596268304</v>
       </c>
       <c r="L18">
-        <v>0.4498154560995147</v>
+        <v>0.3748981539752236</v>
       </c>
       <c r="M18">
-        <v>0.2443031510877205</v>
+        <v>0.3528670953682607</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>4.210137547671962</v>
+        <v>1.899595843933525</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6133770645689651</v>
+        <v>1.314467115559864</v>
       </c>
       <c r="C19">
-        <v>0.1597529717895512</v>
+        <v>0.1047545877671112</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2175644721392445</v>
+        <v>0.1107024040144182</v>
       </c>
       <c r="F19">
-        <v>2.224541912395892</v>
+        <v>1.235954497165196</v>
       </c>
       <c r="G19">
-        <v>0.002487780719253626</v>
+        <v>0.0008182189789679641</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.121947166965327</v>
+        <v>0.4677821990178863</v>
       </c>
       <c r="J19">
-        <v>0.08736957058419392</v>
+        <v>0.1066030038299317</v>
       </c>
       <c r="K19">
-        <v>0.3588301098801026</v>
+        <v>1.084888536440246</v>
       </c>
       <c r="L19">
-        <v>0.4492554580678245</v>
+        <v>0.372300519457454</v>
       </c>
       <c r="M19">
-        <v>0.2435174281969452</v>
+        <v>0.349914160245298</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>4.212316048722471</v>
+        <v>1.899679626731825</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6282945522738999</v>
+        <v>1.366164910263819</v>
       </c>
       <c r="C20">
-        <v>0.1599757631922429</v>
+        <v>0.1054544960138415</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2177620546534627</v>
+        <v>0.1127111055694634</v>
       </c>
       <c r="F20">
-        <v>2.224504801833575</v>
+        <v>1.254272305937747</v>
       </c>
       <c r="G20">
-        <v>0.002486988002816427</v>
+        <v>0.0008168977096695379</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.118905244861779</v>
+        <v>0.4653104107045394</v>
       </c>
       <c r="J20">
-        <v>0.0880935548831232</v>
+        <v>0.1086452386172709</v>
       </c>
       <c r="K20">
-        <v>0.3715213049926547</v>
+        <v>1.12666833975905</v>
       </c>
       <c r="L20">
-        <v>0.4517858780490513</v>
+        <v>0.3840116207379509</v>
       </c>
       <c r="M20">
-        <v>0.2470579220100149</v>
+        <v>0.3632155237182104</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>4.202643824197139</v>
+        <v>1.899603677456952</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6785281462777277</v>
+        <v>1.540482241879232</v>
       </c>
       <c r="C21">
-        <v>0.1607266961177345</v>
+        <v>0.1078299361659987</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2185050480002459</v>
+        <v>0.119596530386513</v>
       </c>
       <c r="F21">
-        <v>2.225558008341238</v>
+        <v>1.318524793374223</v>
       </c>
       <c r="G21">
-        <v>0.00248441066353773</v>
+        <v>0.0008125304390988464</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.109246630546295</v>
+        <v>0.4582532409248685</v>
       </c>
       <c r="J21">
-        <v>0.09051468666661577</v>
+        <v>0.1155100082077496</v>
       </c>
       <c r="K21">
-        <v>0.414134243561989</v>
+        <v>1.267413675162402</v>
       </c>
       <c r="L21">
-        <v>0.4604683861488184</v>
+        <v>0.4237541099078896</v>
       </c>
       <c r="M21">
-        <v>0.2590341406579384</v>
+        <v>0.4081478569494621</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>4.172443332422148</v>
+        <v>1.904796620798237</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7114392231939632</v>
+        <v>1.654945361725481</v>
       </c>
       <c r="C22">
-        <v>0.1612191797216695</v>
+        <v>0.1094019833008844</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2190493580333772</v>
+        <v>0.1242036841154004</v>
       </c>
       <c r="F22">
-        <v>2.227122764882054</v>
+        <v>1.36265806629919</v>
       </c>
       <c r="G22">
-        <v>0.002482790125455843</v>
+        <v>0.0008097277980356244</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.103352713715182</v>
+        <v>0.4546166963373892</v>
       </c>
       <c r="J22">
-        <v>0.09208844227990909</v>
+        <v>0.1200005479494664</v>
       </c>
       <c r="K22">
-        <v>0.4419609511279532</v>
+        <v>1.35973494979649</v>
       </c>
       <c r="L22">
-        <v>0.4662766087722474</v>
+        <v>0.450046652490542</v>
       </c>
       <c r="M22">
-        <v>0.2669204411730064</v>
+        <v>0.4377153526870217</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>4.154416930572495</v>
+        <v>1.912476708446775</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6938668261079783</v>
+        <v>1.593800163645824</v>
       </c>
       <c r="C23">
-        <v>0.1609561804653694</v>
+        <v>0.1085610421799643</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2187534936029252</v>
+        <v>0.1217345978960083</v>
       </c>
       <c r="F23">
-        <v>2.226207526772228</v>
+        <v>1.338899296367657</v>
       </c>
       <c r="G23">
-        <v>0.002483649206333969</v>
+        <v>0.0008112190323612421</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.106460123345059</v>
+        <v>0.456465270745074</v>
       </c>
       <c r="J23">
-        <v>0.09124929399165183</v>
+        <v>0.1176033839626669</v>
       </c>
       <c r="K23">
-        <v>0.4271116156824348</v>
+        <v>1.310426627387955</v>
       </c>
       <c r="L23">
-        <v>0.4631644773447761</v>
+        <v>0.4359830708714583</v>
       </c>
       <c r="M23">
-        <v>0.2627060233568344</v>
+        <v>0.4219147418360265</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4.163881403493519</v>
+        <v>1.907970528508031</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6274749212569191</v>
+        <v>1.363323765998302</v>
       </c>
       <c r="C24">
-        <v>0.1599635194008542</v>
+        <v>0.1054159750359815</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2177509059501119</v>
+        <v>0.1126002972868285</v>
       </c>
       <c r="F24">
-        <v>2.224502404744854</v>
+        <v>1.253256497797409</v>
       </c>
       <c r="G24">
-        <v>0.002487031210400401</v>
+        <v>0.0008169699915324992</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.119070178585865</v>
+        <v>0.4654415684308049</v>
       </c>
       <c r="J24">
-        <v>0.08805383951639811</v>
+        <v>0.1085330811594716</v>
       </c>
       <c r="K24">
-        <v>0.3708244628175521</v>
+        <v>1.124372743375631</v>
       </c>
       <c r="L24">
-        <v>0.4516462375062531</v>
+        <v>0.3833670775964038</v>
       </c>
       <c r="M24">
-        <v>0.2468631891812905</v>
+        <v>0.3624842206076195</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>4.203166334382615</v>
+        <v>1.899587907597862</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5562293587036606</v>
+        <v>1.116549099964374</v>
       </c>
       <c r="C25">
-        <v>0.1589005578844791</v>
+        <v>0.1020962687297242</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2169232774421026</v>
+        <v>0.1031730087267668</v>
       </c>
       <c r="F25">
-        <v>2.226435450506614</v>
+        <v>1.169288601546</v>
       </c>
       <c r="G25">
-        <v>0.002490955267055874</v>
+        <v>0.0008234079917404763</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.134470404294333</v>
+        <v>0.4790232024051839</v>
       </c>
       <c r="J25">
-        <v>0.08457095722375385</v>
+        <v>0.09875588149135694</v>
       </c>
       <c r="K25">
-        <v>0.3100264616405184</v>
+        <v>0.9247494352615604</v>
       </c>
       <c r="L25">
-        <v>0.4398019839308063</v>
+        <v>0.3278258530302622</v>
       </c>
       <c r="M25">
-        <v>0.2300342105665578</v>
+        <v>0.2991078219742533</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>4.252892392011745</v>
+        <v>1.907520383371534</v>
       </c>
     </row>
   </sheetData>
